--- a/docs/pass_react_file.xlsx
+++ b/docs/pass_react_file.xlsx
@@ -282,15 +282,6 @@
     <t>etc/FaqDetail.js</t>
   </si>
   <si>
-    <t>ect/Report.js</t>
-  </si>
-  <si>
-    <t>ect/ReportGasSmell.js</t>
-  </si>
-  <si>
-    <t>ect/ReportForkcrane.js</t>
-  </si>
-  <si>
     <t>etc/CenterAreaSearch.js</t>
   </si>
   <si>
@@ -1023,6 +1014,18 @@
   </si>
   <si>
     <t>members/Member.js</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>etc/Report.js</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>etc/ReportGasSmell.js</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>etc/ReportForkcrane.js</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1479,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1496,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1507,10 +1510,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1518,10 +1521,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1529,10 +1532,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1540,10 +1543,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1551,10 +1554,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1562,10 +1565,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1573,21 +1576,21 @@
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1595,10 +1598,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1606,10 +1609,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1617,10 +1620,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1628,10 +1631,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1639,10 +1642,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1650,10 +1653,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1661,10 +1664,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1672,10 +1675,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1683,10 +1686,10 @@
         <v>16</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1694,10 +1697,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1705,10 +1708,10 @@
         <v>18</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1716,10 +1719,10 @@
         <v>19</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1727,10 +1730,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1738,10 +1741,10 @@
         <v>21</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1749,10 +1752,10 @@
         <v>22</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1760,10 +1763,10 @@
         <v>23</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1771,10 +1774,10 @@
         <v>24</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1782,10 +1785,10 @@
         <v>25</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1793,10 +1796,10 @@
         <v>26</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1804,10 +1807,10 @@
         <v>27</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1815,21 +1818,21 @@
         <v>28</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1837,10 +1840,10 @@
         <v>29</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1848,10 +1851,10 @@
         <v>30</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1859,10 +1862,10 @@
         <v>31</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1870,10 +1873,10 @@
         <v>32</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1881,10 +1884,10 @@
         <v>33</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1892,10 +1895,10 @@
         <v>34</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1903,10 +1906,10 @@
         <v>35</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1914,10 +1917,10 @@
         <v>36</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1925,10 +1928,10 @@
         <v>37</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1936,10 +1939,10 @@
         <v>38</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1947,10 +1950,10 @@
         <v>39</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1958,10 +1961,10 @@
         <v>40</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1969,10 +1972,10 @@
         <v>41</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1980,10 +1983,10 @@
         <v>42</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1991,10 +1994,10 @@
         <v>43</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2002,10 +2005,10 @@
         <v>44</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2013,10 +2016,10 @@
         <v>45</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2024,10 +2027,10 @@
         <v>46</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2035,10 +2038,10 @@
         <v>47</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2046,10 +2049,10 @@
         <v>48</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2057,10 +2060,10 @@
         <v>49</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2068,10 +2071,10 @@
         <v>50</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2079,10 +2082,10 @@
         <v>51</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2090,10 +2093,10 @@
         <v>52</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2101,10 +2104,10 @@
         <v>53</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2112,10 +2115,10 @@
         <v>54</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2123,10 +2126,10 @@
         <v>55</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2134,10 +2137,10 @@
         <v>56</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2145,10 +2148,10 @@
         <v>57</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2156,10 +2159,10 @@
         <v>58</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2167,10 +2170,10 @@
         <v>59</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2178,10 +2181,10 @@
         <v>60</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2189,10 +2192,10 @@
         <v>61</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2200,10 +2203,10 @@
         <v>62</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2211,54 +2214,54 @@
         <v>63</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="68" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B68" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="69" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B71" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2266,10 +2269,10 @@
         <v>64</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2277,10 +2280,10 @@
         <v>65</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2288,10 +2291,10 @@
         <v>66</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="75" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2299,21 +2302,21 @@
         <v>67</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="76" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B76" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="77" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2321,10 +2324,10 @@
         <v>68</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="78" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2332,10 +2335,10 @@
         <v>69</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="79" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2343,10 +2346,10 @@
         <v>70</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="80" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2354,10 +2357,10 @@
         <v>71</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="81" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2365,10 +2368,10 @@
         <v>72</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2376,10 +2379,10 @@
         <v>73</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="83" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2387,10 +2390,10 @@
         <v>74</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="84" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2398,10 +2401,10 @@
         <v>75</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="85" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2409,10 +2412,10 @@
         <v>76</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="86" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2420,10 +2423,10 @@
         <v>77</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="87" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2431,10 +2434,10 @@
         <v>78</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="88" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2442,10 +2445,10 @@
         <v>79</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="89" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2453,10 +2456,10 @@
         <v>80</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="90" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2464,10 +2467,10 @@
         <v>81</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="91" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2475,10 +2478,10 @@
         <v>82</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="92" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2486,10 +2489,10 @@
         <v>83</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="93" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2497,219 +2500,219 @@
         <v>84</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="94" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B94" s="1" t="s">
-        <v>85</v>
+        <v>328</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="95" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B95" s="1" t="s">
-        <v>86</v>
+        <v>329</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="96" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B96" s="1" t="s">
-        <v>87</v>
+        <v>330</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B97" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="98" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B98" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="99" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B99" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="100" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B100" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="101" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="102" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B102" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="103" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B103" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="104" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B104" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="105" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B105" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="106" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B106" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="107" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B107" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="108" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B108" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="109" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B109" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="110" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B110" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="111" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B111" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="112" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B112" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/docs/pass_react_file.xlsx
+++ b/docs/pass_react_file.xlsx
@@ -690,9 +690,6 @@
     <t>/refunds/:id</t>
   </si>
   <si>
-    <t>과오납 환출 신청 내역</t>
-  </si>
-  <si>
     <t>/promises</t>
   </si>
   <si>
@@ -1026,6 +1023,76 @@
   </si>
   <si>
     <t>etc/ReportForkcrane.js</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>과오납</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>환불</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내역</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1033,7 +1100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1067,6 +1134,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1482,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1584,7 +1658,7 @@
     </row>
     <row r="10" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>117</v>
@@ -1826,7 +1900,7 @@
     </row>
     <row r="32" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>161</v>
@@ -2162,7 +2236,7 @@
         <v>220</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>221</v>
+        <v>330</v>
       </c>
     </row>
     <row r="63" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2170,10 +2244,10 @@
         <v>59</v>
       </c>
       <c r="C63" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2181,10 +2255,10 @@
         <v>60</v>
       </c>
       <c r="C64" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2192,10 +2266,10 @@
         <v>61</v>
       </c>
       <c r="C65" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2203,10 +2277,10 @@
         <v>62</v>
       </c>
       <c r="C66" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="67" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2214,54 +2288,54 @@
         <v>63</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B68" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C68" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="69" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="D69" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="70" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="D70" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="71" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B71" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C71" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>239</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="72" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2269,10 +2343,10 @@
         <v>64</v>
       </c>
       <c r="C72" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="73" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2280,10 +2354,10 @@
         <v>65</v>
       </c>
       <c r="C73" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="74" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2291,10 +2365,10 @@
         <v>66</v>
       </c>
       <c r="C74" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>245</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="75" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2302,21 +2376,21 @@
         <v>67</v>
       </c>
       <c r="C75" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="76" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B76" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C76" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="77" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2324,10 +2398,10 @@
         <v>68</v>
       </c>
       <c r="C77" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="78" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2335,10 +2409,10 @@
         <v>69</v>
       </c>
       <c r="C78" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="79" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2346,10 +2420,10 @@
         <v>70</v>
       </c>
       <c r="C79" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="80" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2357,10 +2431,10 @@
         <v>71</v>
       </c>
       <c r="C80" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="81" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2368,10 +2442,10 @@
         <v>72</v>
       </c>
       <c r="C81" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="82" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2379,10 +2453,10 @@
         <v>73</v>
       </c>
       <c r="C82" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="83" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2390,10 +2464,10 @@
         <v>74</v>
       </c>
       <c r="C83" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="84" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2401,10 +2475,10 @@
         <v>75</v>
       </c>
       <c r="C84" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="85" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2412,10 +2486,10 @@
         <v>76</v>
       </c>
       <c r="C85" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="86" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2423,10 +2497,10 @@
         <v>77</v>
       </c>
       <c r="C86" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="87" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2434,10 +2508,10 @@
         <v>78</v>
       </c>
       <c r="C87" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="88" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2445,10 +2519,10 @@
         <v>79</v>
       </c>
       <c r="C88" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="89" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2456,10 +2530,10 @@
         <v>80</v>
       </c>
       <c r="C89" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="90" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2467,10 +2541,10 @@
         <v>81</v>
       </c>
       <c r="C90" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>277</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="91" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2478,10 +2552,10 @@
         <v>82</v>
       </c>
       <c r="C91" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="92" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2489,10 +2563,10 @@
         <v>83</v>
       </c>
       <c r="C92" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D92" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="93" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2500,43 +2574,43 @@
         <v>84</v>
       </c>
       <c r="C93" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="94" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B94" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C94" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D94" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="95" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B95" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C95" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="96" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B96" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C96" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D96" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2544,10 +2618,10 @@
         <v>85</v>
       </c>
       <c r="C97" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="98" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2555,10 +2629,10 @@
         <v>86</v>
       </c>
       <c r="C98" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D98" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="99" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2566,10 +2640,10 @@
         <v>87</v>
       </c>
       <c r="C99" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D99" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="100" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2577,10 +2651,10 @@
         <v>88</v>
       </c>
       <c r="C100" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D100" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="101" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2588,10 +2662,10 @@
         <v>89</v>
       </c>
       <c r="C101" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D101" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="102" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2599,10 +2673,10 @@
         <v>90</v>
       </c>
       <c r="C102" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D102" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="103" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2610,10 +2684,10 @@
         <v>91</v>
       </c>
       <c r="C103" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D103" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="104" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2621,10 +2695,10 @@
         <v>92</v>
       </c>
       <c r="C104" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D104" s="4" t="s">
         <v>305</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="105" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2632,10 +2706,10 @@
         <v>93</v>
       </c>
       <c r="C105" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D105" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="106" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2643,10 +2717,10 @@
         <v>94</v>
       </c>
       <c r="C106" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D106" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="107" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2654,10 +2728,10 @@
         <v>95</v>
       </c>
       <c r="C107" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D107" s="4" t="s">
         <v>311</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="108" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2665,10 +2739,10 @@
         <v>96</v>
       </c>
       <c r="C108" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D108" s="4" t="s">
         <v>313</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="109" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2676,10 +2750,10 @@
         <v>97</v>
       </c>
       <c r="C109" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D109" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="110" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2687,10 +2761,10 @@
         <v>98</v>
       </c>
       <c r="C110" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D110" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="111" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2698,10 +2772,10 @@
         <v>99</v>
       </c>
       <c r="C111" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D111" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="112" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2709,10 +2783,10 @@
         <v>100</v>
       </c>
       <c r="C112" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D112" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/docs/pass_react_file.xlsx
+++ b/docs/pass_react_file.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\서울도시가스\scg-paas-server-prototype\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamdeng/Project/scg-paas-server-prototype/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC4F82A-36BF-D64B-828B-5B249C3BCB15}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12495" windowHeight="10065"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24260" windowHeight="17660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="334">
   <si>
     <t>리액트 파일명
 (src/components)</t>
@@ -1095,12 +1096,26 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>서버 api</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{company}/home
+/main</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{company}/home2
+/main2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1143,7 +1158,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1162,8 +1177,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1186,93 +1207,36 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1553,1241 +1517,1361 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:E112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="3" max="3" width="35.625" customWidth="1"/>
-    <col min="4" max="4" width="49.125" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" customWidth="1"/>
+    <col min="4" max="4" width="49.1640625" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="2:5" ht="18" thickBot="1"/>
+    <row r="2" spans="2:5" ht="31" thickBot="1">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="29" thickBot="1">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
+      <c r="E3" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="18" thickBot="1">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="2:5" ht="18" thickBot="1">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="2:5" ht="29" thickBot="1">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
+      <c r="E6" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="18" thickBot="1">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="1" t="s">
+      <c r="E7" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="18" thickBot="1">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="1" t="s">
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="2:5" ht="18" thickBot="1">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="s">
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="2:5" ht="18" thickBot="1">
+      <c r="B10" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="1" t="s">
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="2:5" ht="18" thickBot="1">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="1" t="s">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="2:5" ht="18" thickBot="1">
+      <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="2:5" ht="18" thickBot="1">
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="1" t="s">
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="2:5" ht="18" thickBot="1">
+      <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="1" t="s">
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="2:5" ht="18" thickBot="1">
+      <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="1" t="s">
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="2:5" ht="18" thickBot="1">
+      <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="1" t="s">
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="2:5" ht="18" thickBot="1">
+      <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="1" t="s">
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="2:5" ht="18" thickBot="1">
+      <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="1" t="s">
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="2:5" ht="18" thickBot="1">
+      <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="1" t="s">
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="2:5" ht="18" thickBot="1">
+      <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="1" t="s">
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="2:5" ht="29" thickBot="1">
+      <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="1" t="s">
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="2:5" ht="18" thickBot="1">
+      <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="1" t="s">
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="2:5" ht="18" thickBot="1">
+      <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="1" t="s">
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="2:5" ht="29" thickBot="1">
+      <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="1" t="s">
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="2:5" ht="18" thickBot="1">
+      <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="1" t="s">
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="2:5" ht="18" thickBot="1">
+      <c r="B26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="1" t="s">
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="2:5" ht="18" thickBot="1">
+      <c r="B27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="1" t="s">
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="2:5" ht="18" thickBot="1">
+      <c r="B28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="1" t="s">
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="2:5" ht="18" thickBot="1">
+      <c r="B29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="1" t="s">
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="2:5" ht="18" thickBot="1">
+      <c r="B30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="1" t="s">
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="2:5" ht="18" thickBot="1">
+      <c r="B31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="1" t="s">
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="2:5" ht="18" thickBot="1">
+      <c r="B32" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="1" t="s">
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="2:5" ht="18" thickBot="1">
+      <c r="B33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="1" t="s">
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="2:5" ht="18" thickBot="1">
+      <c r="B34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="1" t="s">
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="2:5" ht="18" thickBot="1">
+      <c r="B35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="1" t="s">
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="2:5" ht="18" thickBot="1">
+      <c r="B36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="1" t="s">
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="2:5" ht="18" thickBot="1">
+      <c r="B37" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="1" t="s">
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="2:5" ht="18" thickBot="1">
+      <c r="B38" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="1" t="s">
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="2:5" ht="18" thickBot="1">
+      <c r="B39" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="1" t="s">
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="2:5" ht="18" thickBot="1">
+      <c r="B40" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="1" t="s">
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="2:5" ht="18" thickBot="1">
+      <c r="B41" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="1" t="s">
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="2:5" ht="18" thickBot="1">
+      <c r="B42" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="1" t="s">
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="2:5" ht="18" thickBot="1">
+      <c r="B43" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="1" t="s">
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="2:5" ht="18" thickBot="1">
+      <c r="B44" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="1" t="s">
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="2:5" ht="18" thickBot="1">
+      <c r="B45" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="3" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="1" t="s">
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="2:5" ht="18" thickBot="1">
+      <c r="B46" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="3" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="47" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="1" t="s">
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="2:5" ht="18" thickBot="1">
+      <c r="B47" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="3" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="48" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="1" t="s">
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="2:5" ht="18" thickBot="1">
+      <c r="B48" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="1" t="s">
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="2:5" ht="18" thickBot="1">
+      <c r="B49" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="3" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="1" t="s">
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="2:5" ht="18" thickBot="1">
+      <c r="B50" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="3" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="1" t="s">
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="2:5" ht="18" thickBot="1">
+      <c r="B51" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="1" t="s">
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="2:5" ht="18" thickBot="1">
+      <c r="B52" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="3" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="1" t="s">
+      <c r="E52" s="6"/>
+    </row>
+    <row r="53" spans="2:5" ht="18" thickBot="1">
+      <c r="B53" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="1" t="s">
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="2:5" ht="18" thickBot="1">
+      <c r="B54" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="3" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="55" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="1" t="s">
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="2:5" ht="18" thickBot="1">
+      <c r="B55" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="1" t="s">
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="2:5" ht="18" thickBot="1">
+      <c r="B56" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="57" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="1" t="s">
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="2:5" ht="18" thickBot="1">
+      <c r="B57" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="3" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="1" t="s">
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="2:5" ht="18" thickBot="1">
+      <c r="B58" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="3" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="59" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="1" t="s">
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="2:5" ht="18" thickBot="1">
+      <c r="B59" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="3" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="1" t="s">
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="2:5" ht="18" thickBot="1">
+      <c r="B60" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="3" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="61" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="1" t="s">
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="2:5" ht="18" thickBot="1">
+      <c r="B61" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="1" t="s">
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="2:5" ht="18" thickBot="1">
+      <c r="B62" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="3" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="63" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="1" t="s">
+      <c r="E62" s="6"/>
+    </row>
+    <row r="63" spans="2:5" ht="18" thickBot="1">
+      <c r="B63" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="3" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="64" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="1" t="s">
+      <c r="E63" s="6"/>
+    </row>
+    <row r="64" spans="2:5" ht="18" thickBot="1">
+      <c r="B64" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="3" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="65" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="1" t="s">
+      <c r="E64" s="6"/>
+    </row>
+    <row r="65" spans="2:5" ht="18" thickBot="1">
+      <c r="B65" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="3" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="66" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="1" t="s">
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" spans="2:5" ht="18" thickBot="1">
+      <c r="B66" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="3" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="67" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="1" t="s">
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="2:5" ht="18" thickBot="1">
+      <c r="B67" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="3" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="68" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="1" t="s">
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" spans="2:5" ht="18" thickBot="1">
+      <c r="B68" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="3" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="69" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="1" t="s">
+      <c r="E68" s="6"/>
+    </row>
+    <row r="69" spans="2:5" ht="18" thickBot="1">
+      <c r="B69" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="3" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="70" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="1" t="s">
+      <c r="E69" s="6"/>
+    </row>
+    <row r="70" spans="2:5" ht="18" thickBot="1">
+      <c r="B70" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="5" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="71" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="1" t="s">
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="2:5" ht="18" thickBot="1">
+      <c r="B71" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="3" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="72" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="1" t="s">
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="2:5" ht="18" thickBot="1">
+      <c r="B72" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="3" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="73" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="1" t="s">
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="2:5" ht="18" thickBot="1">
+      <c r="B73" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="3" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="74" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="1" t="s">
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="2:5" ht="18" thickBot="1">
+      <c r="B74" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="3" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="75" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="1" t="s">
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" spans="2:5" ht="18" thickBot="1">
+      <c r="B75" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="3" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="76" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="1" t="s">
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" spans="2:5" ht="18" thickBot="1">
+      <c r="B76" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="3" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="77" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="1" t="s">
+      <c r="E76" s="6"/>
+    </row>
+    <row r="77" spans="2:5" ht="18" thickBot="1">
+      <c r="B77" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="3" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="78" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="1" t="s">
+      <c r="E77" s="6"/>
+    </row>
+    <row r="78" spans="2:5" ht="18" thickBot="1">
+      <c r="B78" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="3" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="79" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="1" t="s">
+      <c r="E78" s="6"/>
+    </row>
+    <row r="79" spans="2:5" ht="18" thickBot="1">
+      <c r="B79" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="3" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="80" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="1" t="s">
+      <c r="E79" s="6"/>
+    </row>
+    <row r="80" spans="2:5" ht="18" thickBot="1">
+      <c r="B80" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="3" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="81" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="1" t="s">
+      <c r="E80" s="6"/>
+    </row>
+    <row r="81" spans="2:5" ht="18" thickBot="1">
+      <c r="B81" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="3" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="82" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="1" t="s">
+      <c r="E81" s="6"/>
+    </row>
+    <row r="82" spans="2:5" ht="18" thickBot="1">
+      <c r="B82" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="3" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="83" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="1" t="s">
+      <c r="E82" s="6"/>
+    </row>
+    <row r="83" spans="2:5" ht="18" thickBot="1">
+      <c r="B83" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="3" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="84" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="1" t="s">
+      <c r="E83" s="6"/>
+    </row>
+    <row r="84" spans="2:5" ht="18" thickBot="1">
+      <c r="B84" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="85" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="1" t="s">
+      <c r="E84" s="6"/>
+    </row>
+    <row r="85" spans="2:5" ht="18" thickBot="1">
+      <c r="B85" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="86" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="1" t="s">
+      <c r="E85" s="6"/>
+    </row>
+    <row r="86" spans="2:5" ht="18" thickBot="1">
+      <c r="B86" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="87" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="1" t="s">
+      <c r="E86" s="6"/>
+    </row>
+    <row r="87" spans="2:5" ht="18" thickBot="1">
+      <c r="B87" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="88" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="1" t="s">
+      <c r="E87" s="6"/>
+    </row>
+    <row r="88" spans="2:5" ht="18" thickBot="1">
+      <c r="B88" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D88" s="3" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="89" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="1" t="s">
+      <c r="E88" s="6"/>
+    </row>
+    <row r="89" spans="2:5" ht="18" thickBot="1">
+      <c r="B89" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D89" s="3" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="90" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="1" t="s">
+      <c r="E89" s="6"/>
+    </row>
+    <row r="90" spans="2:5" ht="18" thickBot="1">
+      <c r="B90" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D90" s="3" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="91" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="1" t="s">
+      <c r="E90" s="6"/>
+    </row>
+    <row r="91" spans="2:5" ht="18" thickBot="1">
+      <c r="B91" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" s="3" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="92" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="1" t="s">
+      <c r="E91" s="6"/>
+    </row>
+    <row r="92" spans="2:5" ht="18" thickBot="1">
+      <c r="B92" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D92" s="3" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="93" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="1" t="s">
+      <c r="E92" s="6"/>
+    </row>
+    <row r="93" spans="2:5" ht="18" thickBot="1">
+      <c r="B93" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" s="3" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="94" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="1" t="s">
+      <c r="E93" s="6"/>
+    </row>
+    <row r="94" spans="2:5" ht="18" thickBot="1">
+      <c r="B94" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D94" s="3" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="95" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="1" t="s">
+      <c r="E94" s="6"/>
+    </row>
+    <row r="95" spans="2:5" ht="18" thickBot="1">
+      <c r="B95" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" s="3" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="96" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="1" t="s">
+      <c r="E95" s="6"/>
+    </row>
+    <row r="96" spans="2:5" ht="18" thickBot="1">
+      <c r="B96" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="D96" s="3" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="97" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="1" t="s">
+      <c r="E96" s="6"/>
+    </row>
+    <row r="97" spans="2:5" ht="18" thickBot="1">
+      <c r="B97" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D97" s="3" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="98" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="1" t="s">
+      <c r="E97" s="6"/>
+    </row>
+    <row r="98" spans="2:5" ht="18" thickBot="1">
+      <c r="B98" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D98" s="3" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="99" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="1" t="s">
+      <c r="E98" s="6"/>
+    </row>
+    <row r="99" spans="2:5" ht="18" thickBot="1">
+      <c r="B99" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D99" s="3" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="100" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="1" t="s">
+      <c r="E99" s="6"/>
+    </row>
+    <row r="100" spans="2:5" ht="18" thickBot="1">
+      <c r="B100" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D100" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="101" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="1" t="s">
+      <c r="E100" s="6"/>
+    </row>
+    <row r="101" spans="2:5" ht="18" thickBot="1">
+      <c r="B101" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D101" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="102" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="1" t="s">
+      <c r="E101" s="6"/>
+    </row>
+    <row r="102" spans="2:5" ht="18" thickBot="1">
+      <c r="B102" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D102" s="3" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="103" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="1" t="s">
+      <c r="E102" s="6"/>
+    </row>
+    <row r="103" spans="2:5" ht="18" thickBot="1">
+      <c r="B103" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D103" s="3" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="104" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="1" t="s">
+      <c r="E103" s="6"/>
+    </row>
+    <row r="104" spans="2:5" ht="18" thickBot="1">
+      <c r="B104" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="D104" s="3" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="105" spans="2:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="1" t="s">
+      <c r="E104" s="6"/>
+    </row>
+    <row r="105" spans="2:5" ht="29" thickBot="1">
+      <c r="B105" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="D105" s="3" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="106" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="1" t="s">
+      <c r="E105" s="6"/>
+    </row>
+    <row r="106" spans="2:5" ht="18" thickBot="1">
+      <c r="B106" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D106" s="3" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="107" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="1" t="s">
+      <c r="E106" s="6"/>
+    </row>
+    <row r="107" spans="2:5" ht="18" thickBot="1">
+      <c r="B107" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D107" s="3" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="108" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="1" t="s">
+      <c r="E107" s="6"/>
+    </row>
+    <row r="108" spans="2:5" ht="18" thickBot="1">
+      <c r="B108" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D108" s="3" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="109" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="1" t="s">
+      <c r="E108" s="6"/>
+    </row>
+    <row r="109" spans="2:5" ht="18" thickBot="1">
+      <c r="B109" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="110" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="1" t="s">
+      <c r="E109" s="6"/>
+    </row>
+    <row r="110" spans="2:5" ht="18" thickBot="1">
+      <c r="B110" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="D110" s="3" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="111" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="1" t="s">
+      <c r="E110" s="6"/>
+    </row>
+    <row r="111" spans="2:5" ht="18" thickBot="1">
+      <c r="B111" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="D111" s="3" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="112" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B112" s="1" t="s">
+      <c r="E111" s="6"/>
+    </row>
+    <row r="112" spans="2:5" ht="18" thickBot="1">
+      <c r="B112" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="D112" s="3" t="s">
         <v>321</v>
       </c>
+      <c r="E112" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/docs/pass_react_file.xlsx
+++ b/docs/pass_react_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamdeng/Project/scg-paas-server-prototype/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC4F82A-36BF-D64B-828B-5B249C3BCB15}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB10C5D9-20B6-7842-BA16-9D6E8945935D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24260" windowHeight="17660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="336">
   <si>
     <t>리액트 파일명
 (src/components)</t>
@@ -946,10 +946,6 @@
     <t>고객의 소리 작성</t>
   </si>
   <si>
-    <t>/vocs/:id
-/vocs/:id/edit</t>
-  </si>
-  <si>
     <t>고객의 소리 상세</t>
   </si>
   <si>
@@ -993,108 +989,6 @@
   </si>
   <si>
     <t>혜택(마케팅) 정보 수신 동의</t>
-  </si>
-  <si>
-    <t>members/MemberRegist.js</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>reservations/Move.js</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>reservations/Reservation.js</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cash/Cash.js</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>members/Member.js</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>etc/Report.js</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>etc/ReportGasSmell.js</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>etc/ReportForkcrane.js</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>과오납</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>환불</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>신청</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내역</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>서버 api</t>
@@ -1103,19 +997,52 @@
   <si>
     <t>/{company}/home
 /main</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/{company}/home2
-/main2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>members/Member.js</t>
+  </si>
+  <si>
+    <t>members/MemberRegist.js</t>
+  </si>
+  <si>
+    <t>과오납 환불 신청 내역</t>
+  </si>
+  <si>
+    <t>reservations/Move.js</t>
+  </si>
+  <si>
+    <t>reservations/Reservation.js</t>
+  </si>
+  <si>
+    <t>cash/Cash.js</t>
+  </si>
+  <si>
+    <t>etc/Report.js</t>
+  </si>
+  <si>
+    <t>etc/ReportGasSmell.js</t>
+  </si>
+  <si>
+    <t>etc/ReportForkcrane.js</t>
+  </si>
+  <si>
+    <t>/vocs/:id</t>
+  </si>
+  <si>
+    <t>etc/VocEdit.js</t>
+  </si>
+  <si>
+    <t>/vocs/:id/edit</t>
+  </si>
+  <si>
+    <t>고객의 소리 수정</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1150,15 +1077,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1168,18 +1088,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF6AA84F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF93C47D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1213,7 +1121,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1223,20 +1131,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1518,10 +1420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E112"/>
+  <dimension ref="B1:E113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1544,10 +1446,10 @@
         <v>102</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="29" thickBot="1">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1557,11 +1459,9 @@
       <c r="D3" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="18" thickBot="1">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1571,9 +1471,9 @@
       <c r="D4" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="2:5" ht="18" thickBot="1">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1583,9 +1483,9 @@
       <c r="D5" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="2:5" ht="29" thickBot="1">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="2:5" ht="28">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1595,11 +1495,11 @@
       <c r="D6" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="18" thickBot="1">
+      <c r="E6" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1609,23 +1509,23 @@
       <c r="D7" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="18" thickBot="1">
+    <row r="8" spans="2:5">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="2:5" ht="18" thickBot="1">
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1635,11 +1535,11 @@
       <c r="D9" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="2:5" ht="18" thickBot="1">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>117</v>
@@ -1647,9 +1547,9 @@
       <c r="D10" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="2:5" ht="18" thickBot="1">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1659,9 +1559,9 @@
       <c r="D11" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="2:5" ht="18" thickBot="1">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1671,9 +1571,9 @@
       <c r="D12" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="2:5" ht="18" thickBot="1">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1683,9 +1583,9 @@
       <c r="D13" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="2:5" ht="18" thickBot="1">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1695,9 +1595,9 @@
       <c r="D14" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="2:5" ht="18" thickBot="1">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="2:5">
       <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
@@ -1707,9 +1607,9 @@
       <c r="D15" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="2:5" ht="18" thickBot="1">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="2:5">
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
@@ -1719,9 +1619,9 @@
       <c r="D16" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="2:5" ht="18" thickBot="1">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
@@ -1731,9 +1631,9 @@
       <c r="D17" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="2:5" ht="18" thickBot="1">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
@@ -1743,9 +1643,9 @@
       <c r="D18" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="2:5" ht="18" thickBot="1">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
@@ -1755,9 +1655,9 @@
       <c r="D19" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="2:5" ht="18" thickBot="1">
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
@@ -1767,9 +1667,9 @@
       <c r="D20" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="2:5" ht="29" thickBot="1">
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="2:5">
       <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
@@ -1779,9 +1679,9 @@
       <c r="D21" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="2:5" ht="18" thickBot="1">
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
@@ -1791,9 +1691,9 @@
       <c r="D22" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="2:5" ht="18" thickBot="1">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="2:5">
       <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
@@ -1803,9 +1703,9 @@
       <c r="D23" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="2:5" ht="29" thickBot="1">
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="2:5">
       <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
@@ -1815,9 +1715,9 @@
       <c r="D24" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="2:5" ht="18" thickBot="1">
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
@@ -1827,9 +1727,9 @@
       <c r="D25" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="2:5" ht="18" thickBot="1">
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="2:5">
       <c r="B26" s="3" t="s">
         <v>23</v>
       </c>
@@ -1839,9 +1739,9 @@
       <c r="D26" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="2:5" ht="18" thickBot="1">
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="2:5">
       <c r="B27" s="3" t="s">
         <v>24</v>
       </c>
@@ -1851,9 +1751,9 @@
       <c r="D27" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="2:5" ht="18" thickBot="1">
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="2:5">
       <c r="B28" s="3" t="s">
         <v>25</v>
       </c>
@@ -1863,9 +1763,9 @@
       <c r="D28" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="2:5" ht="18" thickBot="1">
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="2:5">
       <c r="B29" s="3" t="s">
         <v>26</v>
       </c>
@@ -1875,9 +1775,9 @@
       <c r="D29" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="2:5" ht="18" thickBot="1">
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="2:5">
       <c r="B30" s="3" t="s">
         <v>27</v>
       </c>
@@ -1887,9 +1787,9 @@
       <c r="D30" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="2:5" ht="18" thickBot="1">
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="2:5">
       <c r="B31" s="3" t="s">
         <v>28</v>
       </c>
@@ -1899,11 +1799,11 @@
       <c r="D31" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="2:5" ht="18" thickBot="1">
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="2:5">
       <c r="B32" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>161</v>
@@ -1911,9 +1811,9 @@
       <c r="D32" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="2:5" ht="18" thickBot="1">
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="2:5">
       <c r="B33" s="3" t="s">
         <v>29</v>
       </c>
@@ -1923,9 +1823,9 @@
       <c r="D33" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="2:5" ht="18" thickBot="1">
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="2:5">
       <c r="B34" s="3" t="s">
         <v>30</v>
       </c>
@@ -1935,9 +1835,9 @@
       <c r="D34" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="2:5" ht="18" thickBot="1">
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="2:5">
       <c r="B35" s="3" t="s">
         <v>31</v>
       </c>
@@ -1947,9 +1847,9 @@
       <c r="D35" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="2:5" ht="18" thickBot="1">
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="2:5">
       <c r="B36" s="3" t="s">
         <v>32</v>
       </c>
@@ -1959,9 +1859,9 @@
       <c r="D36" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="2:5" ht="18" thickBot="1">
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="2:5">
       <c r="B37" s="3" t="s">
         <v>33</v>
       </c>
@@ -1971,9 +1871,9 @@
       <c r="D37" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="2:5" ht="18" thickBot="1">
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="2:5">
       <c r="B38" s="3" t="s">
         <v>34</v>
       </c>
@@ -1983,9 +1883,9 @@
       <c r="D38" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="2:5" ht="18" thickBot="1">
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="2:5">
       <c r="B39" s="3" t="s">
         <v>35</v>
       </c>
@@ -1995,9 +1895,9 @@
       <c r="D39" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="2:5" ht="18" thickBot="1">
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="2:5">
       <c r="B40" s="3" t="s">
         <v>36</v>
       </c>
@@ -2007,9 +1907,9 @@
       <c r="D40" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="2:5" ht="18" thickBot="1">
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="2:5">
       <c r="B41" s="3" t="s">
         <v>37</v>
       </c>
@@ -2019,9 +1919,9 @@
       <c r="D41" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E41" s="6"/>
-    </row>
-    <row r="42" spans="2:5" ht="18" thickBot="1">
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="2:5">
       <c r="B42" s="3" t="s">
         <v>38</v>
       </c>
@@ -2031,9 +1931,9 @@
       <c r="D42" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43" spans="2:5" ht="18" thickBot="1">
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="2:5">
       <c r="B43" s="3" t="s">
         <v>39</v>
       </c>
@@ -2043,9 +1943,9 @@
       <c r="D43" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E43" s="6"/>
-    </row>
-    <row r="44" spans="2:5" ht="18" thickBot="1">
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="2:5">
       <c r="B44" s="3" t="s">
         <v>40</v>
       </c>
@@ -2055,9 +1955,9 @@
       <c r="D44" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45" spans="2:5" ht="18" thickBot="1">
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="2:5">
       <c r="B45" s="3" t="s">
         <v>41</v>
       </c>
@@ -2067,9 +1967,9 @@
       <c r="D45" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E45" s="6"/>
-    </row>
-    <row r="46" spans="2:5" ht="18" thickBot="1">
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="2:5">
       <c r="B46" s="3" t="s">
         <v>42</v>
       </c>
@@ -2079,9 +1979,9 @@
       <c r="D46" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E46" s="6"/>
-    </row>
-    <row r="47" spans="2:5" ht="18" thickBot="1">
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="2:5">
       <c r="B47" s="3" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +1991,9 @@
       <c r="D47" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="2:5" ht="18" thickBot="1">
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="2:5">
       <c r="B48" s="3" t="s">
         <v>44</v>
       </c>
@@ -2103,9 +2003,9 @@
       <c r="D48" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E48" s="6"/>
-    </row>
-    <row r="49" spans="2:5" ht="18" thickBot="1">
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="2:5">
       <c r="B49" s="3" t="s">
         <v>45</v>
       </c>
@@ -2115,9 +2015,9 @@
       <c r="D49" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E49" s="6"/>
-    </row>
-    <row r="50" spans="2:5" ht="18" thickBot="1">
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="2:5">
       <c r="B50" s="3" t="s">
         <v>46</v>
       </c>
@@ -2127,9 +2027,9 @@
       <c r="D50" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E50" s="6"/>
-    </row>
-    <row r="51" spans="2:5" ht="18" thickBot="1">
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="2:5">
       <c r="B51" s="3" t="s">
         <v>47</v>
       </c>
@@ -2139,9 +2039,9 @@
       <c r="D51" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E51" s="6"/>
-    </row>
-    <row r="52" spans="2:5" ht="18" thickBot="1">
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="2:5">
       <c r="B52" s="3" t="s">
         <v>48</v>
       </c>
@@ -2151,9 +2051,9 @@
       <c r="D52" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E52" s="6"/>
-    </row>
-    <row r="53" spans="2:5" ht="18" thickBot="1">
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="2:5">
       <c r="B53" s="3" t="s">
         <v>49</v>
       </c>
@@ -2163,9 +2063,9 @@
       <c r="D53" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E53" s="6"/>
-    </row>
-    <row r="54" spans="2:5" ht="18" thickBot="1">
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="2:5">
       <c r="B54" s="3" t="s">
         <v>50</v>
       </c>
@@ -2175,9 +2075,9 @@
       <c r="D54" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E54" s="6"/>
-    </row>
-    <row r="55" spans="2:5" ht="18" thickBot="1">
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="2:5">
       <c r="B55" s="3" t="s">
         <v>51</v>
       </c>
@@ -2187,9 +2087,9 @@
       <c r="D55" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E55" s="6"/>
-    </row>
-    <row r="56" spans="2:5" ht="18" thickBot="1">
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="2:5">
       <c r="B56" s="3" t="s">
         <v>52</v>
       </c>
@@ -2199,9 +2099,9 @@
       <c r="D56" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E56" s="6"/>
-    </row>
-    <row r="57" spans="2:5" ht="18" thickBot="1">
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="2:5">
       <c r="B57" s="3" t="s">
         <v>53</v>
       </c>
@@ -2211,9 +2111,9 @@
       <c r="D57" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E57" s="6"/>
-    </row>
-    <row r="58" spans="2:5" ht="18" thickBot="1">
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="2:5">
       <c r="B58" s="3" t="s">
         <v>54</v>
       </c>
@@ -2223,9 +2123,9 @@
       <c r="D58" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="E58" s="6"/>
-    </row>
-    <row r="59" spans="2:5" ht="18" thickBot="1">
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="2:5">
       <c r="B59" s="3" t="s">
         <v>55</v>
       </c>
@@ -2235,9 +2135,9 @@
       <c r="D59" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E59" s="6"/>
-    </row>
-    <row r="60" spans="2:5" ht="18" thickBot="1">
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="2:5">
       <c r="B60" s="3" t="s">
         <v>56</v>
       </c>
@@ -2247,9 +2147,9 @@
       <c r="D60" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E60" s="6"/>
-    </row>
-    <row r="61" spans="2:5" ht="18" thickBot="1">
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="2:5">
       <c r="B61" s="3" t="s">
         <v>57</v>
       </c>
@@ -2259,9 +2159,9 @@
       <c r="D61" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E61" s="6"/>
-    </row>
-    <row r="62" spans="2:5" ht="18" thickBot="1">
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="2:5">
       <c r="B62" s="3" t="s">
         <v>58</v>
       </c>
@@ -2269,11 +2169,11 @@
         <v>220</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E62" s="6"/>
-    </row>
-    <row r="63" spans="2:5" ht="18" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="2:5">
       <c r="B63" s="3" t="s">
         <v>59</v>
       </c>
@@ -2283,9 +2183,9 @@
       <c r="D63" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E63" s="6"/>
-    </row>
-    <row r="64" spans="2:5" ht="18" thickBot="1">
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="2:5">
       <c r="B64" s="3" t="s">
         <v>60</v>
       </c>
@@ -2295,9 +2195,9 @@
       <c r="D64" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E64" s="6"/>
-    </row>
-    <row r="65" spans="2:5" ht="18" thickBot="1">
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="2:5">
       <c r="B65" s="3" t="s">
         <v>61</v>
       </c>
@@ -2307,9 +2207,9 @@
       <c r="D65" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E65" s="6"/>
-    </row>
-    <row r="66" spans="2:5" ht="18" thickBot="1">
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="2:5">
       <c r="B66" s="3" t="s">
         <v>62</v>
       </c>
@@ -2319,9 +2219,9 @@
       <c r="D66" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E66" s="6"/>
-    </row>
-    <row r="67" spans="2:5" ht="18" thickBot="1">
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="2:5">
       <c r="B67" s="3" t="s">
         <v>63</v>
       </c>
@@ -2331,11 +2231,11 @@
       <c r="D67" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E67" s="6"/>
-    </row>
-    <row r="68" spans="2:5" ht="18" thickBot="1">
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="2:5">
       <c r="B68" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>230</v>
@@ -2343,9 +2243,9 @@
       <c r="D68" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E68" s="6"/>
-    </row>
-    <row r="69" spans="2:5" ht="18" thickBot="1">
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="2:5">
       <c r="B69" s="3" t="s">
         <v>232</v>
       </c>
@@ -2355,9 +2255,9 @@
       <c r="D69" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="E69" s="6"/>
-    </row>
-    <row r="70" spans="2:5" ht="18" thickBot="1">
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="2:5">
       <c r="B70" s="3" t="s">
         <v>235</v>
       </c>
@@ -2367,11 +2267,11 @@
       <c r="D70" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E70" s="6"/>
-    </row>
-    <row r="71" spans="2:5" ht="18" thickBot="1">
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="2:5">
       <c r="B71" s="3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>238</v>
@@ -2379,9 +2279,9 @@
       <c r="D71" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E71" s="6"/>
-    </row>
-    <row r="72" spans="2:5" ht="18" thickBot="1">
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="2:5">
       <c r="B72" s="3" t="s">
         <v>64</v>
       </c>
@@ -2391,9 +2291,9 @@
       <c r="D72" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E72" s="6"/>
-    </row>
-    <row r="73" spans="2:5" ht="18" thickBot="1">
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="2:5">
       <c r="B73" s="3" t="s">
         <v>65</v>
       </c>
@@ -2403,9 +2303,9 @@
       <c r="D73" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="E73" s="6"/>
-    </row>
-    <row r="74" spans="2:5" ht="18" thickBot="1">
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="2:5">
       <c r="B74" s="3" t="s">
         <v>66</v>
       </c>
@@ -2415,9 +2315,9 @@
       <c r="D74" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="E74" s="6"/>
-    </row>
-    <row r="75" spans="2:5" ht="18" thickBot="1">
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="2:5">
       <c r="B75" s="3" t="s">
         <v>67</v>
       </c>
@@ -2427,11 +2327,11 @@
       <c r="D75" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="E75" s="6"/>
-    </row>
-    <row r="76" spans="2:5" ht="18" thickBot="1">
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="2:5">
       <c r="B76" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>248</v>
@@ -2439,9 +2339,9 @@
       <c r="D76" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E76" s="6"/>
-    </row>
-    <row r="77" spans="2:5" ht="18" thickBot="1">
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="2:5">
       <c r="B77" s="3" t="s">
         <v>68</v>
       </c>
@@ -2451,9 +2351,9 @@
       <c r="D77" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="E77" s="6"/>
-    </row>
-    <row r="78" spans="2:5" ht="18" thickBot="1">
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="2:5">
       <c r="B78" s="3" t="s">
         <v>69</v>
       </c>
@@ -2463,9 +2363,9 @@
       <c r="D78" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="E78" s="6"/>
-    </row>
-    <row r="79" spans="2:5" ht="18" thickBot="1">
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="2:5">
       <c r="B79" s="3" t="s">
         <v>70</v>
       </c>
@@ -2475,9 +2375,9 @@
       <c r="D79" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="E79" s="6"/>
-    </row>
-    <row r="80" spans="2:5" ht="18" thickBot="1">
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="2:5">
       <c r="B80" s="3" t="s">
         <v>71</v>
       </c>
@@ -2487,9 +2387,9 @@
       <c r="D80" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E80" s="6"/>
-    </row>
-    <row r="81" spans="2:5" ht="18" thickBot="1">
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="2:5">
       <c r="B81" s="3" t="s">
         <v>72</v>
       </c>
@@ -2499,9 +2399,9 @@
       <c r="D81" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="E81" s="6"/>
-    </row>
-    <row r="82" spans="2:5" ht="18" thickBot="1">
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="2:5">
       <c r="B82" s="3" t="s">
         <v>73</v>
       </c>
@@ -2511,9 +2411,9 @@
       <c r="D82" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="E82" s="6"/>
-    </row>
-    <row r="83" spans="2:5" ht="18" thickBot="1">
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="2:5">
       <c r="B83" s="3" t="s">
         <v>74</v>
       </c>
@@ -2523,9 +2423,9 @@
       <c r="D83" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E83" s="6"/>
-    </row>
-    <row r="84" spans="2:5" ht="18" thickBot="1">
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="2:5">
       <c r="B84" s="3" t="s">
         <v>75</v>
       </c>
@@ -2535,9 +2435,9 @@
       <c r="D84" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="E84" s="6"/>
-    </row>
-    <row r="85" spans="2:5" ht="18" thickBot="1">
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="2:5">
       <c r="B85" s="3" t="s">
         <v>76</v>
       </c>
@@ -2547,9 +2447,9 @@
       <c r="D85" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="E85" s="6"/>
-    </row>
-    <row r="86" spans="2:5" ht="18" thickBot="1">
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="2:5">
       <c r="B86" s="3" t="s">
         <v>77</v>
       </c>
@@ -2559,9 +2459,9 @@
       <c r="D86" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E86" s="6"/>
-    </row>
-    <row r="87" spans="2:5" ht="18" thickBot="1">
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="2:5">
       <c r="B87" s="3" t="s">
         <v>78</v>
       </c>
@@ -2571,9 +2471,9 @@
       <c r="D87" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="E87" s="6"/>
-    </row>
-    <row r="88" spans="2:5" ht="18" thickBot="1">
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="2:5">
       <c r="B88" s="3" t="s">
         <v>79</v>
       </c>
@@ -2583,9 +2483,9 @@
       <c r="D88" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="E88" s="6"/>
-    </row>
-    <row r="89" spans="2:5" ht="18" thickBot="1">
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="2:5">
       <c r="B89" s="3" t="s">
         <v>80</v>
       </c>
@@ -2595,9 +2495,9 @@
       <c r="D89" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="E89" s="6"/>
-    </row>
-    <row r="90" spans="2:5" ht="18" thickBot="1">
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="2:5">
       <c r="B90" s="3" t="s">
         <v>81</v>
       </c>
@@ -2607,9 +2507,9 @@
       <c r="D90" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="E90" s="6"/>
-    </row>
-    <row r="91" spans="2:5" ht="18" thickBot="1">
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="2:5">
       <c r="B91" s="3" t="s">
         <v>82</v>
       </c>
@@ -2619,9 +2519,9 @@
       <c r="D91" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="E91" s="6"/>
-    </row>
-    <row r="92" spans="2:5" ht="18" thickBot="1">
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="2:5">
       <c r="B92" s="3" t="s">
         <v>83</v>
       </c>
@@ -2631,9 +2531,9 @@
       <c r="D92" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E92" s="6"/>
-    </row>
-    <row r="93" spans="2:5" ht="18" thickBot="1">
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="2:5">
       <c r="B93" s="3" t="s">
         <v>84</v>
       </c>
@@ -2643,11 +2543,11 @@
       <c r="D93" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E93" s="6"/>
-    </row>
-    <row r="94" spans="2:5" ht="18" thickBot="1">
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="2:5">
       <c r="B94" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>284</v>
@@ -2655,11 +2555,11 @@
       <c r="D94" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="E94" s="6"/>
-    </row>
-    <row r="95" spans="2:5" ht="18" thickBot="1">
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="2:5">
       <c r="B95" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>286</v>
@@ -2667,11 +2567,11 @@
       <c r="D95" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="E95" s="6"/>
-    </row>
-    <row r="96" spans="2:5" ht="18" thickBot="1">
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="2:5">
       <c r="B96" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>288</v>
@@ -2679,9 +2579,9 @@
       <c r="D96" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E96" s="6"/>
-    </row>
-    <row r="97" spans="2:5" ht="18" thickBot="1">
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="2:5">
       <c r="B97" s="3" t="s">
         <v>85</v>
       </c>
@@ -2691,9 +2591,9 @@
       <c r="D97" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="E97" s="6"/>
-    </row>
-    <row r="98" spans="2:5" ht="18" thickBot="1">
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="2:5">
       <c r="B98" s="3" t="s">
         <v>86</v>
       </c>
@@ -2703,9 +2603,9 @@
       <c r="D98" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E98" s="6"/>
-    </row>
-    <row r="99" spans="2:5" ht="18" thickBot="1">
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="2:5">
       <c r="B99" s="3" t="s">
         <v>87</v>
       </c>
@@ -2715,9 +2615,9 @@
       <c r="D99" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="E99" s="6"/>
-    </row>
-    <row r="100" spans="2:5" ht="18" thickBot="1">
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="2:5">
       <c r="B100" s="3" t="s">
         <v>88</v>
       </c>
@@ -2727,9 +2627,9 @@
       <c r="D100" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="E100" s="6"/>
-    </row>
-    <row r="101" spans="2:5" ht="18" thickBot="1">
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" spans="2:5">
       <c r="B101" s="3" t="s">
         <v>89</v>
       </c>
@@ -2739,9 +2639,9 @@
       <c r="D101" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="E101" s="6"/>
-    </row>
-    <row r="102" spans="2:5" ht="18" thickBot="1">
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" spans="2:5">
       <c r="B102" s="3" t="s">
         <v>90</v>
       </c>
@@ -2751,9 +2651,9 @@
       <c r="D102" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="E102" s="6"/>
-    </row>
-    <row r="103" spans="2:5" ht="18" thickBot="1">
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" spans="2:5">
       <c r="B103" s="3" t="s">
         <v>91</v>
       </c>
@@ -2763,9 +2663,9 @@
       <c r="D103" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="E103" s="6"/>
-    </row>
-    <row r="104" spans="2:5" ht="18" thickBot="1">
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" spans="2:5">
       <c r="B104" s="3" t="s">
         <v>92</v>
       </c>
@@ -2775,103 +2675,115 @@
       <c r="D104" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E104" s="6"/>
-    </row>
-    <row r="105" spans="2:5" ht="29" thickBot="1">
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" spans="2:5">
       <c r="B105" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C105" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="E105" s="6"/>
-    </row>
-    <row r="106" spans="2:5" ht="18" thickBot="1">
-      <c r="B106" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C106" s="3" t="s">
+      <c r="D107" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="E106" s="6"/>
-    </row>
-    <row r="107" spans="2:5" ht="18" thickBot="1">
-      <c r="B107" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C107" s="3" t="s">
+      <c r="D108" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="B109" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="E107" s="6"/>
-    </row>
-    <row r="108" spans="2:5" ht="18" thickBot="1">
-      <c r="B108" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C108" s="3" t="s">
+      <c r="D109" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="B110" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="E108" s="6"/>
-    </row>
-    <row r="109" spans="2:5" ht="18" thickBot="1">
-      <c r="B109" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C109" s="3" t="s">
+      <c r="D110" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="B111" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="E109" s="6"/>
-    </row>
-    <row r="110" spans="2:5" ht="18" thickBot="1">
-      <c r="B110" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C110" s="3" t="s">
+      <c r="D111" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="B112" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="E110" s="6"/>
-    </row>
-    <row r="111" spans="2:5" ht="18" thickBot="1">
-      <c r="B111" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C111" s="3" t="s">
+      <c r="D112" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" spans="2:5">
+      <c r="B113" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="E111" s="6"/>
-    </row>
-    <row r="112" spans="2:5" ht="18" thickBot="1">
-      <c r="B112" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C112" s="3" t="s">
+      <c r="D113" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D112" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E112" s="6"/>
+      <c r="E113" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/docs/pass_react_file.xlsx
+++ b/docs/pass_react_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamdeng/Project/scg-paas-server-prototype/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB10C5D9-20B6-7842-BA16-9D6E8945935D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F98A741-6A85-2E45-BACF-AB896E1B55BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24260" windowHeight="17660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="339">
   <si>
     <t>리액트 파일명
 (src/components)</t>
   </si>
   <si>
-    <t>Walkthrough.js</t>
-  </si>
-  <si>
     <t>SelectCompany.js</t>
   </si>
   <si>
@@ -208,9 +205,6 @@
     <t>pays/Promise.js</t>
   </si>
   <si>
-    <t>pays/PromiseAdd.js</t>
-  </si>
-  <si>
     <t>pays/PromiseDetail.js</t>
   </si>
   <si>
@@ -286,9 +280,6 @@
     <t>etc/CenterAreaSearch.js</t>
   </si>
   <si>
-    <t>etc/NationwideAreaSearch.js</t>
-  </si>
-  <si>
     <t>etc/Stophold.js</t>
   </si>
   <si>
@@ -526,19 +517,10 @@
     <t>/bills</t>
   </si>
   <si>
-    <t>청구 요금 조회 / 월별조회</t>
-  </si>
-  <si>
     <t>/bills?activeIndex=0</t>
   </si>
   <si>
-    <t>청구 요금 조회 / 연간조회</t>
-  </si>
-  <si>
     <t>/bills?activeIndex=1</t>
-  </si>
-  <si>
-    <t>청구 요금 조회 / 미납내역조회</t>
   </si>
   <si>
     <t>/bills/simple</t>
@@ -1036,6 +1018,42 @@
   </si>
   <si>
     <t>고객의 소리 수정</t>
+  </si>
+  <si>
+    <t>charge/BillMonthDetail.js</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bills/detail?month={201901}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>월별조회 전용 상세</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>etc/NationwideAreaSearch.js</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pays/PromiseAdd.js</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Walkthrough.js</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>청구 요금 조회</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>청구 요금 조회 / 연간조회</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>청구 요금 조회 / 월별조회</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1420,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E113"/>
+  <dimension ref="B1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1440,1350 +1458,1362 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>335</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="2:5" ht="28">
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>166</v>
+        <v>336</v>
       </c>
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>168</v>
+        <v>338</v>
       </c>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>170</v>
+        <v>337</v>
       </c>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="3" t="s">
-        <v>33</v>
+        <v>330</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>171</v>
+        <v>331</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>172</v>
+        <v>332</v>
       </c>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E40" s="3"/>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E43" s="3"/>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E46" s="3"/>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" s="3"/>
     </row>
     <row r="48" spans="2:5">
       <c r="B48" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E48" s="3"/>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E49" s="3"/>
     </row>
     <row r="50" spans="2:5">
       <c r="B50" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E50" s="3"/>
     </row>
     <row r="51" spans="2:5">
       <c r="B51" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E51" s="3"/>
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E52" s="3"/>
     </row>
     <row r="53" spans="2:5">
       <c r="B53" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E53" s="3"/>
     </row>
     <row r="54" spans="2:5">
       <c r="B54" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E54" s="3"/>
     </row>
     <row r="55" spans="2:5">
       <c r="B55" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E55" s="3"/>
     </row>
     <row r="56" spans="2:5">
       <c r="B56" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E56" s="3"/>
     </row>
     <row r="57" spans="2:5">
       <c r="B57" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="2:5">
       <c r="B58" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E59" s="3"/>
     </row>
     <row r="60" spans="2:5">
       <c r="B60" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E60" s="3"/>
     </row>
     <row r="61" spans="2:5">
       <c r="B61" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E61" s="3"/>
     </row>
     <row r="62" spans="2:5">
       <c r="B62" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>325</v>
+        <v>213</v>
       </c>
       <c r="E62" s="3"/>
     </row>
     <row r="63" spans="2:5">
       <c r="B63" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>222</v>
+        <v>319</v>
       </c>
       <c r="E63" s="3"/>
     </row>
     <row r="64" spans="2:5">
       <c r="B64" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E64" s="3"/>
     </row>
     <row r="65" spans="2:5">
       <c r="B65" s="3" t="s">
-        <v>61</v>
+        <v>334</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E65" s="3"/>
     </row>
     <row r="66" spans="2:5">
       <c r="B66" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E66" s="3"/>
     </row>
     <row r="67" spans="2:5">
       <c r="B67" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E67" s="3"/>
     </row>
     <row r="68" spans="2:5">
       <c r="B68" s="3" t="s">
-        <v>326</v>
+        <v>61</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E68" s="3"/>
     </row>
     <row r="69" spans="2:5">
       <c r="B69" s="3" t="s">
-        <v>232</v>
+        <v>320</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E69" s="3"/>
     </row>
     <row r="70" spans="2:5">
       <c r="B70" s="3" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="E70" s="5"/>
+        <v>227</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E70" s="3"/>
     </row>
     <row r="71" spans="2:5">
       <c r="B71" s="3" t="s">
-        <v>327</v>
+        <v>229</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E71" s="3"/>
+        <v>230</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E71" s="5"/>
     </row>
     <row r="72" spans="2:5">
       <c r="B72" s="3" t="s">
-        <v>64</v>
+        <v>321</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E72" s="3"/>
     </row>
     <row r="73" spans="2:5">
       <c r="B73" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E73" s="3"/>
     </row>
     <row r="74" spans="2:5">
       <c r="B74" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E74" s="3"/>
     </row>
     <row r="75" spans="2:5">
       <c r="B75" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E75" s="3"/>
     </row>
     <row r="76" spans="2:5">
       <c r="B76" s="3" t="s">
-        <v>328</v>
+        <v>65</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E76" s="3"/>
     </row>
     <row r="77" spans="2:5">
       <c r="B77" s="3" t="s">
-        <v>68</v>
+        <v>322</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E77" s="3"/>
     </row>
     <row r="78" spans="2:5">
       <c r="B78" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E78" s="3"/>
     </row>
     <row r="79" spans="2:5">
       <c r="B79" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E79" s="3"/>
     </row>
     <row r="80" spans="2:5">
       <c r="B80" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E80" s="3"/>
     </row>
     <row r="81" spans="2:5">
       <c r="B81" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E81" s="3"/>
     </row>
     <row r="82" spans="2:5">
       <c r="B82" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E82" s="3"/>
     </row>
     <row r="83" spans="2:5">
       <c r="B83" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E83" s="3"/>
     </row>
     <row r="84" spans="2:5">
       <c r="B84" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E84" s="3"/>
     </row>
     <row r="85" spans="2:5">
       <c r="B85" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E85" s="3"/>
     </row>
     <row r="86" spans="2:5">
       <c r="B86" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E86" s="3"/>
     </row>
     <row r="87" spans="2:5">
       <c r="B87" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E87" s="3"/>
     </row>
     <row r="88" spans="2:5">
       <c r="B88" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E88" s="3"/>
     </row>
     <row r="89" spans="2:5">
       <c r="B89" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E89" s="3"/>
     </row>
     <row r="90" spans="2:5">
       <c r="B90" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="E90" s="3"/>
     </row>
     <row r="91" spans="2:5">
       <c r="B91" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E91" s="3"/>
     </row>
     <row r="92" spans="2:5">
       <c r="B92" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E92" s="3"/>
     </row>
     <row r="93" spans="2:5">
       <c r="B93" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E93" s="3"/>
     </row>
     <row r="94" spans="2:5">
       <c r="B94" s="3" t="s">
-        <v>329</v>
+        <v>82</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E94" s="3"/>
     </row>
     <row r="95" spans="2:5">
       <c r="B95" s="3" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E95" s="3"/>
     </row>
     <row r="96" spans="2:5">
       <c r="B96" s="3" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E96" s="3"/>
     </row>
     <row r="97" spans="2:5">
       <c r="B97" s="3" t="s">
-        <v>85</v>
+        <v>325</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="E97" s="3"/>
     </row>
     <row r="98" spans="2:5">
       <c r="B98" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E98" s="3"/>
     </row>
     <row r="99" spans="2:5">
       <c r="B99" s="3" t="s">
-        <v>87</v>
+        <v>333</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E99" s="3"/>
     </row>
     <row r="100" spans="2:5">
       <c r="B100" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E100" s="3"/>
     </row>
     <row r="101" spans="2:5">
       <c r="B101" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="E101" s="3"/>
     </row>
     <row r="102" spans="2:5">
       <c r="B102" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="E102" s="3"/>
     </row>
     <row r="103" spans="2:5">
       <c r="B103" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E103" s="3"/>
     </row>
     <row r="104" spans="2:5">
       <c r="B104" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E104" s="3"/>
     </row>
     <row r="105" spans="2:5">
       <c r="B105" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E105" s="3"/>
     </row>
     <row r="106" spans="2:5">
       <c r="B106" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>334</v>
+        <v>90</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="E106" s="3"/>
     </row>
     <row r="107" spans="2:5">
       <c r="B107" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>307</v>
+        <v>327</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="E107" s="3"/>
     </row>
     <row r="108" spans="2:5">
       <c r="B108" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="E108" s="3"/>
     </row>
     <row r="109" spans="2:5">
       <c r="B109" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E109" s="3"/>
     </row>
     <row r="110" spans="2:5">
       <c r="B110" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="E110" s="3"/>
     </row>
     <row r="111" spans="2:5">
       <c r="B111" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E111" s="3"/>
     </row>
     <row r="112" spans="2:5">
       <c r="B112" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E112" s="3"/>
     </row>
     <row r="113" spans="2:5">
       <c r="B113" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="E113" s="3"/>
+    </row>
+    <row r="114" spans="2:5">
+      <c r="B114" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E114" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/docs/pass_react_file.xlsx
+++ b/docs/pass_react_file.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamdeng/Project/scg-paas-server-prototype/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\서울도시가스\scg-paas-server-prototype\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F98A741-6A85-2E45-BACF-AB896E1B55BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24260" windowHeight="17660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="24255" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1059,8 +1058,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1437,23 +1436,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" customWidth="1"/>
-    <col min="4" max="4" width="49.1640625" customWidth="1"/>
-    <col min="5" max="5" width="41.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="3" max="3" width="35.625" customWidth="1"/>
+    <col min="4" max="4" width="49.125" customWidth="1"/>
+    <col min="5" max="5" width="41.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="18" thickBot="1"/>
-    <row r="2" spans="2:5" ht="31" thickBot="1">
+    <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1467,7 +1466,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>335</v>
       </c>
@@ -1479,7 +1478,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1491,7 +1490,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1503,7 +1502,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="2:5" ht="28">
+    <row r="6" spans="2:5" ht="25.5" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1517,7 +1516,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1531,7 +1530,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1543,7 +1542,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1555,7 +1554,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>317</v>
       </c>
@@ -1567,7 +1566,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1579,7 +1578,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1591,7 +1590,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
@@ -1603,7 +1602,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1615,7 +1614,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1627,7 +1626,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
@@ -1639,7 +1638,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
@@ -1651,7 +1650,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
@@ -1663,7 +1662,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
@@ -1675,7 +1674,7 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
@@ -1687,7 +1686,7 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
@@ -1699,7 +1698,7 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -1711,7 +1710,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -1723,7 +1722,7 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -1735,7 +1734,7 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -1747,7 +1746,7 @@
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
@@ -1759,7 +1758,7 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>23</v>
       </c>
@@ -1771,7 +1770,7 @@
       </c>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>24</v>
       </c>
@@ -1783,7 +1782,7 @@
       </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>25</v>
       </c>
@@ -1795,7 +1794,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>26</v>
       </c>
@@ -1807,7 +1806,7 @@
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>27</v>
       </c>
@@ -1819,7 +1818,7 @@
       </c>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>318</v>
       </c>
@@ -1831,7 +1830,7 @@
       </c>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>28</v>
       </c>
@@ -1843,7 +1842,7 @@
       </c>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>29</v>
       </c>
@@ -1855,7 +1854,7 @@
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="2:5">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>30</v>
       </c>
@@ -1867,7 +1866,7 @@
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="2:5">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>31</v>
       </c>
@@ -1879,7 +1878,7 @@
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="2:5">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
         <v>330</v>
       </c>
@@ -1891,7 +1890,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="2:5">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>32</v>
       </c>
@@ -1903,7 +1902,7 @@
       </c>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="2:5">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>33</v>
       </c>
@@ -1915,7 +1914,7 @@
       </c>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="2:5">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>34</v>
       </c>
@@ -1927,7 +1926,7 @@
       </c>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="2:5">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
         <v>35</v>
       </c>
@@ -1939,7 +1938,7 @@
       </c>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="2:5">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
         <v>36</v>
       </c>
@@ -1951,7 +1950,7 @@
       </c>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="2:5">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
         <v>37</v>
       </c>
@@ -1963,7 +1962,7 @@
       </c>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="2:5">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
         <v>38</v>
       </c>
@@ -1975,7 +1974,7 @@
       </c>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="2:5">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
         <v>39</v>
       </c>
@@ -1987,7 +1986,7 @@
       </c>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="2:5">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>40</v>
       </c>
@@ -1999,7 +1998,7 @@
       </c>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="2:5">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
         <v>41</v>
       </c>
@@ -2011,7 +2010,7 @@
       </c>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="2:5">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
         <v>42</v>
       </c>
@@ -2023,7 +2022,7 @@
       </c>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="2:5">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>43</v>
       </c>
@@ -2035,7 +2034,7 @@
       </c>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="2:5">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
         <v>44</v>
       </c>
@@ -2047,7 +2046,7 @@
       </c>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="2:5">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
         <v>45</v>
       </c>
@@ -2059,7 +2058,7 @@
       </c>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="2:5">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
         <v>46</v>
       </c>
@@ -2071,7 +2070,7 @@
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="2:5">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
         <v>47</v>
       </c>
@@ -2083,7 +2082,7 @@
       </c>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="2:5">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
         <v>48</v>
       </c>
@@ -2095,7 +2094,7 @@
       </c>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="2:5">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
         <v>49</v>
       </c>
@@ -2107,7 +2106,7 @@
       </c>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="2:5">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
         <v>50</v>
       </c>
@@ -2119,7 +2118,7 @@
       </c>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="2:5">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
         <v>51</v>
       </c>
@@ -2131,7 +2130,7 @@
       </c>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="2:5">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
         <v>52</v>
       </c>
@@ -2143,7 +2142,7 @@
       </c>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="2:5">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
         <v>53</v>
       </c>
@@ -2155,7 +2154,7 @@
       </c>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="2:5">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
         <v>54</v>
       </c>
@@ -2167,7 +2166,7 @@
       </c>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="2:5">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
         <v>55</v>
       </c>
@@ -2179,7 +2178,7 @@
       </c>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="2:5">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="3" t="s">
         <v>56</v>
       </c>
@@ -2191,7 +2190,7 @@
       </c>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="2:5">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
         <v>57</v>
       </c>
@@ -2203,7 +2202,7 @@
       </c>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="2:5">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>58</v>
       </c>
@@ -2215,7 +2214,7 @@
       </c>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="2:5">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
         <v>334</v>
       </c>
@@ -2227,7 +2226,7 @@
       </c>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="2:5">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
         <v>59</v>
       </c>
@@ -2239,7 +2238,7 @@
       </c>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="2:5">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
         <v>60</v>
       </c>
@@ -2251,7 +2250,7 @@
       </c>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="2:5">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
         <v>61</v>
       </c>
@@ -2263,7 +2262,7 @@
       </c>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="2:5">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
         <v>320</v>
       </c>
@@ -2275,7 +2274,7 @@
       </c>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="2:5">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
         <v>226</v>
       </c>
@@ -2287,7 +2286,7 @@
       </c>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="2:5">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="3" t="s">
         <v>229</v>
       </c>
@@ -2299,7 +2298,7 @@
       </c>
       <c r="E71" s="5"/>
     </row>
-    <row r="72" spans="2:5">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="s">
         <v>321</v>
       </c>
@@ -2311,7 +2310,7 @@
       </c>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="2:5">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
         <v>62</v>
       </c>
@@ -2323,7 +2322,7 @@
       </c>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="2:5">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
         <v>63</v>
       </c>
@@ -2335,7 +2334,7 @@
       </c>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="2:5">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
         <v>64</v>
       </c>
@@ -2347,7 +2346,7 @@
       </c>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="2:5">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="s">
         <v>65</v>
       </c>
@@ -2359,7 +2358,7 @@
       </c>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="2:5">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" s="3" t="s">
         <v>322</v>
       </c>
@@ -2371,7 +2370,7 @@
       </c>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="2:5">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="s">
         <v>66</v>
       </c>
@@ -2383,7 +2382,7 @@
       </c>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="2:5">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
         <v>67</v>
       </c>
@@ -2395,7 +2394,7 @@
       </c>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="2:5">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="s">
         <v>68</v>
       </c>
@@ -2407,7 +2406,7 @@
       </c>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="2:5">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
         <v>69</v>
       </c>
@@ -2419,7 +2418,7 @@
       </c>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="2:5">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="s">
         <v>70</v>
       </c>
@@ -2431,7 +2430,7 @@
       </c>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="2:5">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
         <v>71</v>
       </c>
@@ -2443,7 +2442,7 @@
       </c>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="2:5">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
         <v>72</v>
       </c>
@@ -2455,7 +2454,7 @@
       </c>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="2:5">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
         <v>73</v>
       </c>
@@ -2467,7 +2466,7 @@
       </c>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="2:5">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="s">
         <v>74</v>
       </c>
@@ -2479,7 +2478,7 @@
       </c>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="2:5">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
         <v>75</v>
       </c>
@@ -2491,7 +2490,7 @@
       </c>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="2:5">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
         <v>76</v>
       </c>
@@ -2503,7 +2502,7 @@
       </c>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="2:5">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
         <v>77</v>
       </c>
@@ -2515,7 +2514,7 @@
       </c>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="2:5">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="3" t="s">
         <v>78</v>
       </c>
@@ -2527,7 +2526,7 @@
       </c>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="2:5">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" s="3" t="s">
         <v>79</v>
       </c>
@@ -2539,7 +2538,7 @@
       </c>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="2:5">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" s="3" t="s">
         <v>80</v>
       </c>
@@ -2551,7 +2550,7 @@
       </c>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="2:5">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" s="3" t="s">
         <v>81</v>
       </c>
@@ -2563,7 +2562,7 @@
       </c>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="2:5">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
         <v>82</v>
       </c>
@@ -2575,7 +2574,7 @@
       </c>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="2:5">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="s">
         <v>323</v>
       </c>
@@ -2587,7 +2586,7 @@
       </c>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="2:5">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="s">
         <v>324</v>
       </c>
@@ -2599,7 +2598,7 @@
       </c>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="2:5">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B97" s="3" t="s">
         <v>325</v>
       </c>
@@ -2611,7 +2610,7 @@
       </c>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="2:5">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="s">
         <v>83</v>
       </c>
@@ -2623,7 +2622,7 @@
       </c>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="2:5">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B99" s="3" t="s">
         <v>333</v>
       </c>
@@ -2635,7 +2634,7 @@
       </c>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="2:5">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">
         <v>84</v>
       </c>
@@ -2647,7 +2646,7 @@
       </c>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="2:5">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B101" s="3" t="s">
         <v>85</v>
       </c>
@@ -2659,7 +2658,7 @@
       </c>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="2:5">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B102" s="3" t="s">
         <v>86</v>
       </c>
@@ -2671,7 +2670,7 @@
       </c>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="2:5">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B103" s="3" t="s">
         <v>87</v>
       </c>
@@ -2683,7 +2682,7 @@
       </c>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" spans="2:5">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B104" s="3" t="s">
         <v>88</v>
       </c>
@@ -2695,7 +2694,7 @@
       </c>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" spans="2:5">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B105" s="3" t="s">
         <v>89</v>
       </c>
@@ -2707,7 +2706,7 @@
       </c>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" spans="2:5">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B106" s="3" t="s">
         <v>90</v>
       </c>
@@ -2719,7 +2718,7 @@
       </c>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" spans="2:5">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B107" s="3" t="s">
         <v>327</v>
       </c>
@@ -2731,7 +2730,7 @@
       </c>
       <c r="E107" s="3"/>
     </row>
-    <row r="108" spans="2:5">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B108" s="3" t="s">
         <v>91</v>
       </c>
@@ -2743,7 +2742,7 @@
       </c>
       <c r="E108" s="3"/>
     </row>
-    <row r="109" spans="2:5">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B109" s="3" t="s">
         <v>92</v>
       </c>
@@ -2755,7 +2754,7 @@
       </c>
       <c r="E109" s="3"/>
     </row>
-    <row r="110" spans="2:5">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B110" s="3" t="s">
         <v>93</v>
       </c>
@@ -2767,7 +2766,7 @@
       </c>
       <c r="E110" s="3"/>
     </row>
-    <row r="111" spans="2:5">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B111" s="3" t="s">
         <v>94</v>
       </c>
@@ -2779,7 +2778,7 @@
       </c>
       <c r="E111" s="3"/>
     </row>
-    <row r="112" spans="2:5">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B112" s="3" t="s">
         <v>95</v>
       </c>
@@ -2791,7 +2790,7 @@
       </c>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="2:5">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B113" s="3" t="s">
         <v>96</v>
       </c>
@@ -2803,7 +2802,7 @@
       </c>
       <c r="E113" s="3"/>
     </row>
-    <row r="114" spans="2:5">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B114" s="3" t="s">
         <v>97</v>
       </c>

--- a/docs/pass_react_file.xlsx
+++ b/docs/pass_react_file.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="397">
   <si>
     <t>리액트 파일명
 (src/components)</t>
@@ -330,9 +330,6 @@
     <t>/walkthrough</t>
   </si>
   <si>
-    <t>Walkthrough</t>
-  </si>
-  <si>
     <t>/selectCompany</t>
   </si>
   <si>
@@ -417,15 +414,9 @@
     <t>도시가스 사용 정보 등록</t>
   </si>
   <si>
-    <t>/company/gasAreaGuide</t>
-  </si>
-  <si>
     <t>도시가스 관할지역 안내</t>
   </si>
   <si>
-    <t>/company/contractNumberAddByMyInfo</t>
-  </si>
-  <si>
     <t>내 도시가스 사용 정보 조회 시</t>
   </si>
   <si>
@@ -441,27 +432,12 @@
     <t>도시가스 사용 정보 등록 방식 선택</t>
   </si>
   <si>
-    <t>/company/contractNumberAddByBillInfo</t>
-  </si>
-  <si>
-    <t>청구서 정보로 등록</t>
-  </si>
-  <si>
-    <t>/company/contractNumberSearch</t>
-  </si>
-  <si>
     <t>사용계약번호 찾기</t>
   </si>
   <si>
-    <t>/company/contractNumberAddBySearchAction</t>
-  </si>
-  <si>
     <t>사용계약번호 등록</t>
   </si>
   <si>
-    <t>/schedules</t>
-  </si>
-  <si>
     <t>나의 주요 일정</t>
   </si>
   <si>
@@ -555,9 +531,6 @@
     <t>사용량 기준 계산</t>
   </si>
   <si>
-    <t>/indications</t>
-  </si>
-  <si>
     <t>자가검침</t>
   </si>
   <si>
@@ -585,9 +558,6 @@
     <t>가스요금표 상세</t>
   </si>
   <si>
-    <t>/billSendMethod</t>
-  </si>
-  <si>
     <t>모바일 청구서 관리</t>
   </si>
   <si>
@@ -639,9 +609,6 @@
     <t>납부 실시간 조회</t>
   </si>
   <si>
-    <t>/directDebits</t>
-  </si>
-  <si>
     <t>자동이체 관리</t>
   </si>
   <si>
@@ -657,9 +624,6 @@
     <t>자동이체 해지</t>
   </si>
   <si>
-    <t>/refunds</t>
-  </si>
-  <si>
     <t>과오납 조회</t>
   </si>
   <si>
@@ -672,9 +636,6 @@
     <t>/refunds/:id</t>
   </si>
   <si>
-    <t>/promises</t>
-  </si>
-  <si>
     <t>분할 납부 확약서</t>
   </si>
   <si>
@@ -723,9 +684,6 @@
     <t>이사 / 전출</t>
   </si>
   <si>
-    <t>/reservations</t>
-  </si>
-  <si>
     <t>방문예약 캘린더</t>
   </si>
   <si>
@@ -789,9 +747,6 @@
     <t>가스비 할인 내역</t>
   </si>
   <si>
-    <t>/cash/outcomeOrderAdd</t>
-  </si>
-  <si>
     <t>익월 청구 할인 신청</t>
   </si>
   <si>
@@ -891,9 +846,6 @@
     <t>전국 도시가스 관할 조회</t>
   </si>
   <si>
-    <t>/stopholds</t>
-  </si>
-  <si>
     <t>공급중지 보류 요청 내역</t>
   </si>
   <si>
@@ -907,9 +859,6 @@
   </si>
   <si>
     <t>공급중지 보류 요청 상세</t>
-  </si>
-  <si>
-    <t>/insurances</t>
   </si>
   <si>
     <t>보증보험 정보</t>
@@ -1052,6 +1001,364 @@
   </si>
   <si>
     <t>청구 요금 조회 / 월별조회</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발방법
+(state, store)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (HomeStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Walkthrough</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (WalkthroughStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (TaskStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (CSTalkStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (MemberStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (PushStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (CompanyStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/company/gasAreaGuide</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/company/contractNumberAddByMyInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/company/contractNumberAddByBillInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>청구서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/company/contractNumberSearch</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/company/contractNumberAddBySearchAction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (ContractNumberSearchStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (ContractNumberAddByBillInfoStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (ContractNumberAddByMyInfoStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/schedules</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (ScheduleStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (SafeCheckStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (MeterStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (MyVocStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (HanbillStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (MemberRegistStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (SimpleStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (ChargeStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/indications</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (IndicationStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/billSendMethod</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (BillSendMethodStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (CostStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (HanbillStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (PayStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (PayPgStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/directDebits</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (DirectDebitStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/refunds</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (RefundStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/promises</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (PromiseStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/weakDiscount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (WeakDiscountStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (MoveStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/reservations</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (ReservationStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (CashStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (LifeStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (InfoStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (FaqStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (ReportStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (CenterAreaStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/stopholds</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/insurances</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (InsuranceStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (VocStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (NoticeStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cash/outcomeOrderAdd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (CashGiftStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (CashOutStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (CashEventStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (BillSearchStore, BillMonthSearchStore, BillYearSearchStore, PayStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (BillMonthSearchStore, BillSearchStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>store (BillSearchStore, BillYearSearchStore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (BillMonthSearchStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (StopholdStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (ContractNumberAddBySearchActionStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (PayStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (PromiseStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (CashStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (NoticeStore)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1059,7 +1366,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1091,6 +1398,33 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1138,7 +1472,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1156,6 +1490,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1437,22 +1786,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E114"/>
+  <dimension ref="B1:F114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="33.375" customWidth="1"/>
     <col min="3" max="3" width="35.625" customWidth="1"/>
-    <col min="4" max="4" width="49.125" customWidth="1"/>
-    <col min="5" max="5" width="41.625" customWidth="1"/>
+    <col min="4" max="4" width="39.5" customWidth="1"/>
+    <col min="5" max="5" width="21.625" customWidth="1"/>
+    <col min="6" max="6" width="40.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1463,1356 +1813,1695 @@
         <v>99</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>101</v>
+        <v>327</v>
       </c>
       <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="2:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="F5" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>130</v>
+        <v>334</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>132</v>
+        <v>335</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>138</v>
+        <v>336</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>139</v>
+        <v>337</v>
       </c>
       <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>140</v>
+        <v>338</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>142</v>
+        <v>339</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>144</v>
+        <v>343</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F42" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F43" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>176</v>
+        <v>352</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F44" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F45" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F46" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F47" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F48" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>186</v>
+        <v>354</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F49" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F50" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F51" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F52" s="10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F53" s="10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F54" s="10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F55" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F56" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F57" s="10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>204</v>
+        <v>360</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F58" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F59" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F60" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>210</v>
+        <v>362</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F61" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F62" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F63" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>215</v>
+        <v>364</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="E64" s="3"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F64" s="8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="E65" s="3"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F65" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="E66" s="3"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F66" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E67" s="3"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F67" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>221</v>
+        <v>366</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="E68" s="3"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F68" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="E69" s="3"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F69" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E70" s="3"/>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F70" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="3" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="E71" s="5"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F71" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>232</v>
+        <v>369</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="E72" s="3"/>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F72" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E73" s="3"/>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F73" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="E74" s="3"/>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F74" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="E75" s="3"/>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F75" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="E76" s="3"/>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F76" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="3" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="E77" s="3"/>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F77" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="E78" s="3"/>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F78" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F79" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="E80" s="3"/>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F80" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="E81" s="3"/>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F81" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="E82" s="3"/>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F82" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>254</v>
+        <v>383</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="E83" s="3"/>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F83" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="E84" s="3"/>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F84" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="E85" s="3"/>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F85" s="8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="E86" s="3"/>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F86" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E87" s="3"/>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F87" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="E88" s="3"/>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F88" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="E89" s="3"/>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F89" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="E90" s="3"/>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F90" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F91" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F92" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="E93" s="3"/>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F93" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F94" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F95" s="8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="E96" s="3"/>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F96" s="8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B97" s="3" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="E97" s="3"/>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F97" s="8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="E98" s="3"/>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F98" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B99" s="3" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="E99" s="3"/>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F99" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>288</v>
+        <v>378</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="E100" s="3"/>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F100" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B101" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="E101" s="3"/>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F101" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B102" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="E102" s="3"/>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F102" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B103" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>294</v>
+        <v>379</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="E103" s="3"/>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F103" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B104" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="E104" s="3"/>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F104" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B105" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="E105" s="3"/>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F105" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B106" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="E106" s="3"/>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F106" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B107" s="3" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="E107" s="3"/>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F107" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B108" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="E108" s="3"/>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F108" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B109" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="E109" s="3"/>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F109" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B110" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="E110" s="3"/>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F110" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B111" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="E111" s="3"/>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F111" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B112" s="3" t="s">
         <v>95</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="E112" s="3"/>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F112" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B113" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="E113" s="3"/>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F113" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B114" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="E114" s="3"/>
+      <c r="F114" s="9" t="s">
+        <v>323</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/docs/pass_react_file.xlsx
+++ b/docs/pass_react_file.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="398">
   <si>
     <t>리액트 파일명
 (src/components)</t>
@@ -1164,10 +1164,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>store (SimpleStore)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>store (ChargeStore)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1359,6 +1355,14 @@
   </si>
   <si>
     <t>store (NoticeStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (SimpleBillSearchStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (SimpleBillSearchStore)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1788,8 +1792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2150,7 +2154,7 @@
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
@@ -2300,7 +2304,7 @@
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
@@ -2315,7 +2319,7 @@
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
@@ -2330,7 +2334,7 @@
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
@@ -2345,7 +2349,7 @@
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
@@ -2360,7 +2364,7 @@
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="8" t="s">
-        <v>350</v>
+        <v>397</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
@@ -2375,7 +2379,7 @@
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="8" t="s">
-        <v>350</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
@@ -2390,7 +2394,7 @@
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="8" t="s">
-        <v>350</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
@@ -2405,7 +2409,7 @@
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
@@ -2420,7 +2424,7 @@
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
@@ -2435,7 +2439,7 @@
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
@@ -2443,14 +2447,14 @@
         <v>38</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>168</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
@@ -2465,7 +2469,7 @@
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
@@ -2480,7 +2484,7 @@
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
@@ -2495,7 +2499,7 @@
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
@@ -2510,7 +2514,7 @@
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
@@ -2518,14 +2522,14 @@
         <v>43</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>177</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
@@ -2540,7 +2544,7 @@
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
@@ -2555,7 +2559,7 @@
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
@@ -2570,7 +2574,7 @@
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
@@ -2585,7 +2589,7 @@
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
@@ -2600,7 +2604,7 @@
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
@@ -2615,7 +2619,7 @@
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
@@ -2645,7 +2649,7 @@
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
@@ -2653,14 +2657,14 @@
         <v>52</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>194</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
@@ -2675,7 +2679,7 @@
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
@@ -2690,7 +2694,7 @@
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
@@ -2698,14 +2702,14 @@
         <v>55</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>199</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
@@ -2720,7 +2724,7 @@
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
@@ -2735,7 +2739,7 @@
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
@@ -2743,14 +2747,14 @@
         <v>58</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>203</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
@@ -2765,7 +2769,7 @@
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
@@ -2780,7 +2784,7 @@
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
@@ -2795,7 +2799,7 @@
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
@@ -2803,14 +2807,14 @@
         <v>61</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>210</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
@@ -2825,7 +2829,7 @@
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
@@ -2840,7 +2844,7 @@
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
@@ -2855,7 +2859,7 @@
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
@@ -2863,14 +2867,14 @@
         <v>304</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>219</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
@@ -2885,7 +2889,7 @@
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.3">
@@ -2900,7 +2904,7 @@
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
@@ -2915,7 +2919,7 @@
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
@@ -2930,7 +2934,7 @@
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
@@ -2945,7 +2949,7 @@
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.3">
@@ -2960,7 +2964,7 @@
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
@@ -2975,7 +2979,7 @@
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
@@ -2990,7 +2994,7 @@
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
@@ -3005,7 +3009,7 @@
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.3">
@@ -3020,7 +3024,7 @@
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.3">
@@ -3028,14 +3032,14 @@
         <v>71</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>240</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.3">
@@ -3050,7 +3054,7 @@
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
@@ -3065,7 +3069,7 @@
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
@@ -3080,7 +3084,7 @@
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.3">
@@ -3095,7 +3099,7 @@
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.3">
@@ -3110,7 +3114,7 @@
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.3">
@@ -3125,7 +3129,7 @@
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.3">
@@ -3140,7 +3144,7 @@
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.3">
@@ -3155,7 +3159,7 @@
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.3">
@@ -3170,7 +3174,7 @@
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.3">
@@ -3185,7 +3189,7 @@
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.3">
@@ -3200,7 +3204,7 @@
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.3">
@@ -3215,7 +3219,7 @@
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.3">
@@ -3230,7 +3234,7 @@
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.3">
@@ -3245,7 +3249,7 @@
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.3">
@@ -3260,7 +3264,7 @@
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.3">
@@ -3283,14 +3287,14 @@
         <v>84</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>273</v>
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.3">
@@ -3305,7 +3309,7 @@
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.3">
@@ -3320,7 +3324,7 @@
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.3">
@@ -3328,14 +3332,14 @@
         <v>87</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>278</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.3">
@@ -3350,7 +3354,7 @@
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.3">
@@ -3365,7 +3369,7 @@
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.3">
@@ -3380,7 +3384,7 @@
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.3">
@@ -3395,7 +3399,7 @@
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.3">
@@ -3410,7 +3414,7 @@
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.3">
@@ -3425,7 +3429,7 @@
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.3">

--- a/docs/pass_react_file.xlsx
+++ b/docs/pass_react_file.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="400">
   <si>
     <t>리액트 파일명
 (src/components)</t>
@@ -1363,6 +1363,24 @@
   </si>
   <si>
     <t>store (SimpleBillSearchStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (BillSearchStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>store (BillYearSearchStore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1790,10 +1808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F114"/>
+  <dimension ref="B1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1803,6 +1821,7 @@
     <col min="4" max="4" width="39.5" customWidth="1"/>
     <col min="5" max="5" width="21.625" customWidth="1"/>
     <col min="6" max="6" width="40.875" customWidth="1"/>
+    <col min="7" max="7" width="41.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -2277,7 +2296,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>28</v>
       </c>
@@ -2292,7 +2311,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" ht="25.5" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>29</v>
       </c>
@@ -2304,10 +2323,13 @@
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>30</v>
       </c>
@@ -2319,10 +2341,13 @@
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="G35" s="10" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>31</v>
       </c>
@@ -2334,10 +2359,13 @@
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
         <v>313</v>
       </c>
@@ -2352,7 +2380,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>32</v>
       </c>
@@ -2367,7 +2395,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>33</v>
       </c>
@@ -2382,7 +2410,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>34</v>
       </c>
@@ -2397,7 +2425,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
         <v>35</v>
       </c>
@@ -2412,7 +2440,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
         <v>36</v>
       </c>
@@ -2427,7 +2455,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
         <v>37</v>
       </c>
@@ -2442,7 +2470,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
         <v>38</v>
       </c>
@@ -2457,7 +2485,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
         <v>39</v>
       </c>
@@ -2472,7 +2500,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>40</v>
       </c>
@@ -2487,7 +2515,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
         <v>41</v>
       </c>
@@ -2502,7 +2530,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
         <v>42</v>
       </c>

--- a/docs/pass_react_file.xlsx
+++ b/docs/pass_react_file.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="401">
   <si>
     <t>리액트 파일명
 (src/components)</t>
@@ -1330,10 +1330,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>store (BillMonthSearchStore)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>store (StopholdStore)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1370,17 +1366,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>store (BillYearSearchStore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t>store (BillSearchMonthStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (BillSearchYearStore)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store (BillSearchMonthStore)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1810,8 +1804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2173,7 +2167,7 @@
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
@@ -2323,7 +2317,7 @@
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>386</v>
@@ -2341,7 +2335,7 @@
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="10" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>387</v>
@@ -2377,7 +2371,7 @@
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="10" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
@@ -2392,7 +2386,7 @@
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
@@ -2407,7 +2401,7 @@
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
@@ -2422,7 +2416,7 @@
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
@@ -2602,7 +2596,7 @@
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
@@ -2782,7 +2776,7 @@
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
@@ -2977,7 +2971,7 @@
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.3">
@@ -3322,7 +3316,7 @@
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.3">
@@ -3337,7 +3331,7 @@
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.3">
@@ -3352,7 +3346,7 @@
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.3">
@@ -3442,7 +3436,7 @@
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.3">
